--- a/cmip6/models/norcpm1/cmip6_ncc_norcpm1_atmoschem.xlsx
+++ b/cmip6/models/norcpm1/cmip6_ncc_norcpm1_atmoschem.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="491">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -163,6 +163,9 @@
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
+    <t>NorESM Atmospheric Chemistry</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
+    <t>Troposphere</t>
+  </si>
+  <si>
     <t>troposphere</t>
   </si>
   <si>
@@ -235,6 +241,9 @@
     <t>cmip6.atmoschem.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Sulphate pre-cursors and h2o2 replenishment</t>
+  </si>
+  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -826,6 +835,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
+    <t>Anthropogenic and biomasss burning emissions from Lamarque et al. 2009. Volcanic eruptions and vertical distribution as in Dentener et al. 2006 and Seland et al. 2008</t>
+  </si>
+  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -844,15 +856,15 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.sources</t>
   </si>
   <si>
+    <t>Sea surface</t>
+  </si>
+  <si>
     <t>Vegetation</t>
   </si>
   <si>
     <t>Soil</t>
   </si>
   <si>
-    <t>Sea surface</t>
-  </si>
-  <si>
     <t>Anthropogenic</t>
   </si>
   <si>
@@ -892,6 +904,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
+    <t>DMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.4 </t>
   </si>
   <si>
@@ -955,6 +970,9 @@
     <t>Volcanos</t>
   </si>
   <si>
+    <t>Other: volcanoes</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.2 </t>
   </si>
   <si>
@@ -973,6 +991,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
+    <t>Volcanic SO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.4 </t>
   </si>
   <si>
@@ -1030,6 +1051,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
+    <t>Nome</t>
+  </si>
+  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -1066,6 +1090,9 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.species</t>
   </si>
   <si>
+    <t>Other: sox</t>
+  </si>
+  <si>
     <t>HOx</t>
   </si>
   <si>
@@ -1327,6 +1354,11 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
+    <t>Aqueous phase reaction of SO2 to sulphate_x000D_
+No reaction in ice._x000D_
+O3 prescribed monthly mean concentrations, H2O2 transported but relaxed heavily towards monthly mean concentrations so H2O2</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.1.1.3 </t>
   </si>
   <si>
@@ -1334,6 +1366,9 @@
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
+  </si>
+  <si>
+    <t>SO2</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.4 </t>
@@ -2113,20 +2148,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -2137,10 +2172,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -2148,10 +2183,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2159,15 +2194,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -2175,21 +2210,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2197,54 +2232,54 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
@@ -2252,10 +2287,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -2418,14 +2453,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2433,15 +2470,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -2449,10 +2486,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2460,15 +2497,15 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -2476,21 +2513,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -2499,29 +2536,31 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AA21" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -2529,32 +2568,34 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -2565,51 +2606,53 @@
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -2617,45 +2660,47 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
+      <c r="B42" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -2663,10 +2708,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -2674,10 +2719,10 @@
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -2685,10 +2730,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -2696,10 +2741,10 @@
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -2707,15 +2752,15 @@
         <v>43</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -2723,109 +2768,115 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="AA67" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
@@ -2833,21 +2884,21 @@
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
@@ -2855,21 +2906,21 @@
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
@@ -2877,59 +2928,59 @@
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AE91" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF91" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AG91" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AH91" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AI91" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
@@ -2937,21 +2988,21 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -2959,21 +3010,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -2981,21 +3032,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -3003,21 +3054,21 @@
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -3025,21 +3076,21 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -3047,21 +3098,21 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -3069,21 +3120,21 @@
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="A122" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
@@ -3091,21 +3142,21 @@
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
@@ -3113,21 +3164,21 @@
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -3135,21 +3186,21 @@
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -3157,23 +3208,23 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
@@ -3181,15 +3232,15 @@
         <v>43</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="B143" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="178" customHeight="1">
@@ -3197,10 +3248,10 @@
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
@@ -3208,15 +3259,15 @@
         <v>43</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
       <c r="B148" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -3224,10 +3275,10 @@
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="A151" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
@@ -3235,15 +3286,15 @@
         <v>43</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="B153" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -3251,10 +3302,10 @@
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -3262,15 +3313,15 @@
         <v>43</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="B158" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
@@ -3365,20 +3416,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3389,10 +3440,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3400,10 +3451,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3411,15 +3462,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3427,21 +3478,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3449,20 +3500,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3473,10 +3524,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3484,10 +3535,10 @@
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3495,10 +3546,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3506,21 +3557,21 @@
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3528,21 +3579,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3550,21 +3601,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3605,20 +3656,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3629,10 +3680,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3640,10 +3691,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3651,15 +3702,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3667,21 +3718,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3689,10 +3740,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3700,15 +3751,15 @@
         <v>43</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3726,7 +3777,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD93"/>
+  <dimension ref="A1:XFD94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3740,20 +3791,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3764,10 +3815,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3775,10 +3826,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3786,26 +3837,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3813,21 +3866,21 @@
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
@@ -3836,43 +3889,45 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
@@ -3883,27 +3938,27 @@
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
@@ -3911,26 +3966,28 @@
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -3938,15 +3995,15 @@
         <v>43</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3954,10 +4011,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3965,15 +4022,15 @@
         <v>43</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -3981,10 +4038,10 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3992,15 +4049,15 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -4008,34 +4065,34 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
@@ -4044,242 +4101,268 @@
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>281</v>
+      </c>
       <c r="AA54" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AC54" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
+      <c r="B59" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="24" customHeight="1">
+      <c r="B60" s="11"/>
+      <c r="AA60" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="B64" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="B65" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="A68" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="B69" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="B74" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="B79" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="AD54" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" ht="24" customHeight="1">
-      <c r="B58" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
-      <c r="AA59" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB59" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC59" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD59" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE59" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="B63" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="A67" s="14" t="s">
+      <c r="B87" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="11"/>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="B73" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="8" t="s">
-        <v>50</v>
+      <c r="B92" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="B94" s="11" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AF20</formula1>
     </dataValidation>
@@ -4289,8 +4372,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
       <formula1>AA54:AE54</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>AA59:AE59</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AE55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+      <formula1>AA60:AE60</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4313,20 +4399,20 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4337,10 +4423,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
@@ -4348,10 +4434,10 @@
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
@@ -4359,15 +4445,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
@@ -4375,21 +4461,21 @@
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
@@ -4398,55 +4484,57 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="AA16" s="6" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -4454,43 +4542,45 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -4498,21 +4588,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -4520,21 +4610,21 @@
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -4542,21 +4632,21 @@
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4564,21 +4654,21 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4586,47 +4676,51 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
+      <c r="B52" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="10">
@@ -4681,20 +4775,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4705,10 +4799,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -4716,10 +4810,10 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -4727,15 +4821,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
@@ -4743,21 +4837,21 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -4768,32 +4862,32 @@
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -4804,38 +4898,38 @@
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
@@ -4843,21 +4937,21 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -4865,21 +4959,21 @@
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -4923,20 +5017,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4947,10 +5041,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4958,10 +5052,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4969,26 +5063,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4996,37 +5092,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
@@ -5035,77 +5133,81 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>418</v>
+      </c>
       <c r="AA21" s="6" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
@@ -5113,25 +5215,27 @@
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
